--- a/pick-wicks-roster.xlsx
+++ b/pick-wicks-roster.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hf-da-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76012D76-744C-4A2C-A04A-5B567F70D2A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A01E99-B014-4B44-A5DA-6898817F9F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" firstSheet="1" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-86520" yWindow="14160" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="4" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="roster-long" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="roster-start" sheetId="14" r:id="rId2"/>
-    <sheet name="roster-finish" sheetId="16" r:id="rId3"/>
-    <sheet name="toothpicks-stacked" sheetId="17" r:id="rId4"/>
+    <sheet name="roster-work" sheetId="22" r:id="rId3"/>
+    <sheet name="roster-finish" sheetId="16" state="hidden" r:id="rId4"/>
+    <sheet name="toothpicks-stacked" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'roster-finish'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'roster-finish'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'roster-start'!$A$1:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'roster-work'!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="88">
   <si>
     <t>jersey_no</t>
   </si>
@@ -297,7 +299,13 @@
     <t>Rene Ricken</t>
   </si>
   <si>
-    <t>toothpicks-stackedc</t>
+    <t>toothpicks-stacked</t>
+  </si>
+  <si>
+    <t>Average height</t>
+  </si>
+  <si>
+    <t>Average height (0 excluded)</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BD8720-9CB7-40D6-AD83-82197B288909}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1729,6 +1737,390 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C04FA92-C122-47C1-BE0D-3A7350B6300A}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>186</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16015</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2">
+        <v>15990</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2">
+        <v>17507</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>181</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16533</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>201</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15765</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>186</v>
+      </c>
+      <c r="F7" s="2">
+        <v>17216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42575</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>164</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14441</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>201</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15765</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>186</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17196</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>211</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14536</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2">
+        <v>39034</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E67A0-09E9-42A0-B167-821C5E8F54CB}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -2125,12 +2517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9F7ABA-18B8-49A8-970E-4B4BACAE2297}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2190,6 +2582,9 @@
       <c r="B5">
         <v>244</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -2203,8 +2598,20 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C8">
         <f>AVERAGE(C2:C6)</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C2:C4,C6)</f>
         <v>74.5</v>
       </c>
     </row>
